--- a/読書記録.xlsx
+++ b/読書記録.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waka_\Desktop\自己学習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waka_\Documents\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E8A2A5-D745-4543-B0A5-A6144139E8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7681457-5EE0-41F2-8DE7-59C48453779A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{167A3260-CB04-4C65-98FB-CE0CD416BDC6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>本の名前</t>
     <rPh sb="0" eb="1">
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>デジタルトランスフォーメーション・ジャーニー 組織のデジタル化から、分断を乗り越えて組織変革にたどりつくまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラミングASP.net　Core</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -237,7 +241,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -369,6 +373,18 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,18 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +714,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -724,27 +728,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
@@ -779,7 +783,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="5">
@@ -806,7 +810,12 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44847</v>
+      </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -943,172 +952,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="7">
         <v>2022</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>2023</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="7">
         <v>2024</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="7">
         <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <f>SUM(B3:B14)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="9">
         <f>SUM(C3:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <f>SUM(D3:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="9">
         <f>SUM(E3:E14)</f>
         <v>0</v>
       </c>

--- a/読書記録.xlsx
+++ b/読書記録.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waka_\Documents\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7681457-5EE0-41F2-8DE7-59C48453779A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465614A-54F7-42A8-A828-28DF888F6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{167A3260-CB04-4C65-98FB-CE0CD416BDC6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>本の名前</t>
     <rPh sb="0" eb="1">
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>プログラミングASP.net　Core</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂新版JavaScript本格入門 ~モダンスタイルによる基礎から現場での応用まで</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -714,7 +718,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -819,6 +823,12 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44876</v>
+      </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
